--- a/Membership/Create Price Level X-Ref/Main.rvl.xlsx
+++ b/Membership/Create Price Level X-Ref/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="137">
   <si>
     <t>Flow</t>
   </si>
@@ -376,6 +376,54 @@
   </si>
   <si>
     <t>ux_SaveandClose</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test creates all Benefits in MembershipData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the benefit to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the benefit is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the benefit using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>*******After each benefit is created, the Create Rate test run to create all of the rates for that benefit.</t>
+  </si>
+  <si>
+    <t>***Test created US Dollar Price Level X-Ref for Rate.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the US Dollar Price Level X-Ref to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Price Level X-Ref is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the US Dollar Price Level X-Ref.</t>
+  </si>
+  <si>
+    <t>*******Test must already be in Rate at the beginnig of running this test.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Price Level X-Ref does not exist. Create new Price Level X-Ref for US Dollar.</t>
+  </si>
+  <si>
+    <t>***Test creates US Dollar Price Level X-Ref for Rate.</t>
   </si>
 </sst>
 </file>
@@ -396,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="227">
+  <borders count="239">
     <border>
       <left/>
       <right/>
@@ -630,11 +678,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -862,6 +922,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="224" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="226" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="231" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="232" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="234" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="236" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H61"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -938,388 +1010,370 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="211"/>
+      <c r="A4" s="237"/>
     </row>
     <row r="5">
-      <c r="A5" s="210" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="234"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="209"/>
+      <c r="A6" s="233"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="232"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="231"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="230"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="229"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="227"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="208"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="207" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="206" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="196"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="195"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="211"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="210" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="209"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="208"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="196"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="195"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="194"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="20">
+      <c r="A20" s="194"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
         <v>114</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="226"/>
-      <c r="B13" t="s">
+    <row r="21">
+      <c r="A21" s="226"/>
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E21" t="s">
         <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="190"/>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="189" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="188"/>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="186"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="185" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="184"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="182"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="181"/>
+      <c r="A22" s="190"/>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="180"/>
+      <c r="A23" s="189" t="s">
+        <v>62</v>
+      </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="179"/>
+      <c r="A24" s="188"/>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="214"/>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
+      <c r="A25" s="186"/>
     </row>
     <row r="26">
-      <c r="A26" s="177"/>
+      <c r="A26" s="185" t="s">
+        <v>23</v>
+      </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="215"/>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>106</v>
-      </c>
+      <c r="A27" s="184"/>
     </row>
     <row r="28">
-      <c r="A28" s="174"/>
+      <c r="A28" s="183" t="s">
+        <v>23</v>
+      </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="173"/>
+      <c r="A29" s="182"/>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="172"/>
+      <c r="A30" s="181"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1327,221 +1381,371 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="180"/>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="179"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="214"/>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="177"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="215"/>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="174"/>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="173"/>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="172"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
         <v>120</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F38" t="s">
         <v>7</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="164" t="s">
+    <row r="39">
+      <c r="A39" s="164" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="163"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="162"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="161"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
-    </row>
     <row r="40">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
+      <c r="A40" s="163"/>
     </row>
     <row r="41">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
+      <c r="A41" s="162"/>
     </row>
     <row r="42">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
+      <c r="A42" s="161"/>
     </row>
     <row r="43">
-      <c r="A43" s="73"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="80"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44">
-      <c r="A44" s="81"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="88"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45">
-      <c r="A45" s="89"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="96"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46">
-      <c r="A46" s="97"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47">
-      <c r="A47" s="105"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="112"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="120"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="56"/>
     </row>
     <row r="49">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="128"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
     </row>
     <row r="50">
-      <c r="A50" s="129"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="72"/>
     </row>
     <row r="51">
-      <c r="A51" s="137"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="144"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80"/>
     </row>
     <row r="52">
-      <c r="A52" s="145"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="152"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="88"/>
     </row>
     <row r="53">
-      <c r="A53" s="153"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="160"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="96"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="97"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="104"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="105"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="112"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="113"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="120"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="121"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="128"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="129"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="136"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="137"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="144"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="145"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="152"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="153"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="160"/>
     </row>
   </sheetData>
 </worksheet>
